--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3442773.124451985</v>
+        <v>3438468.001454914</v>
       </c>
     </row>
     <row r="7">
@@ -670,64 +670,64 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>143.2690424640647</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>125.4713171199747</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>77.08171901666375</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>187.52558716632</v>
       </c>
-      <c r="G2" t="n">
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>187.52558716632</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>158.7758131900531</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>187.52558716632</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>6.3967239860416</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>176.7481829108915</v>
       </c>
       <c r="X3" t="n">
-        <v>151.4847494872145</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.10833718734084</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>107.0878322967033</v>
+        <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760054</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425929</v>
+        <v>23.94240680425901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>203.8828051163989</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,16 +977,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.3208508493752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074806</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>138.8418159401177</v>
+        <v>169.2327851393855</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>40.05337266685251</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0598964836597</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304059</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>151.606547659651</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>269.3968352920047</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>165.1856488601263</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>50.04365252088313</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.25699312606312</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>31.68046530976816</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>145.8850061689745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>139.1630968205466</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>45.31583743121449</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>3.006892987834117</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>65.99480013030511</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>70.81964134445059</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3198,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>46.15319674221002</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187862</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>10.63412424768251</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>88.27810958517587</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>30.97191586387613</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>61.16269384155317</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>393.8416170062754</v>
+        <v>293.402456393256</v>
       </c>
       <c r="C2" t="n">
-        <v>393.8416170062754</v>
+        <v>293.402456393256</v>
       </c>
       <c r="D2" t="n">
-        <v>393.8416170062754</v>
+        <v>293.402456393256</v>
       </c>
       <c r="E2" t="n">
-        <v>393.8416170062754</v>
+        <v>293.402456393256</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897905</v>
+        <v>286.4569556440525</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
         <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652801</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652801</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823982</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="T2" t="n">
-        <v>589.7227393823982</v>
+        <v>482.8222414097409</v>
       </c>
       <c r="U2" t="n">
-        <v>400.3029543659134</v>
+        <v>482.8222414097409</v>
       </c>
       <c r="V2" t="n">
-        <v>400.3029543659134</v>
+        <v>482.8222414097409</v>
       </c>
       <c r="W2" t="n">
-        <v>393.8416170062754</v>
+        <v>482.8222414097409</v>
       </c>
       <c r="X2" t="n">
-        <v>393.8416170062754</v>
+        <v>482.8222414097409</v>
       </c>
       <c r="Y2" t="n">
-        <v>393.8416170062754</v>
+        <v>293.402456393256</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>597.0874501933463</v>
+        <v>571.5688305734704</v>
       </c>
       <c r="C3" t="n">
-        <v>422.6344209122192</v>
+        <v>571.5688305734704</v>
       </c>
       <c r="D3" t="n">
         <v>422.6344209122192</v>
@@ -4412,16 +4412,16 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140248</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476352</v>
@@ -4430,31 +4430,31 @@
         <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652801</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652801</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652801</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652801</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652801</v>
+        <v>750.10234866528</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652801</v>
+        <v>750.10234866528</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652801</v>
+        <v>571.5688305734704</v>
       </c>
       <c r="X3" t="n">
-        <v>597.0874501933463</v>
+        <v>571.5688305734704</v>
       </c>
       <c r="Y3" t="n">
-        <v>597.0874501933463</v>
+        <v>571.5688305734704</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="F4" t="n">
         <v>15.0020469733056</v>
@@ -4494,46 +4494,46 @@
         <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="V4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="W4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1317.118726476527</v>
+        <v>53.87919821146561</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.118726476527</v>
+        <v>53.87919821146561</v>
       </c>
       <c r="D5" t="n">
-        <v>958.8530278697767</v>
+        <v>53.87919821146561</v>
       </c>
       <c r="E5" t="n">
-        <v>958.8530278697767</v>
+        <v>53.87919821146561</v>
       </c>
       <c r="F5" t="n">
-        <v>547.8671230801692</v>
+        <v>46.93369746226213</v>
       </c>
       <c r="G5" t="n">
-        <v>439.6975955077416</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="H5" t="n">
-        <v>128.3539025062531</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="J5" t="n">
-        <v>111.670553901721</v>
+        <v>111.6705539017219</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746965</v>
+        <v>277.980716674698</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030744</v>
+        <v>521.2049416030768</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709158</v>
+        <v>823.5081935709187</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582749</v>
+        <v>1135.316836582753</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079236</v>
+        <v>1416.413635079241</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332755</v>
+        <v>1621.82224833276</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837881</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540649</v>
+        <v>1703.718566540654</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540649</v>
+        <v>1703.718566540654</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540649</v>
+        <v>1703.718566540654</v>
       </c>
       <c r="U5" t="n">
-        <v>1703.718566540649</v>
+        <v>1497.776339150352</v>
       </c>
       <c r="V5" t="n">
-        <v>1703.718566540649</v>
+        <v>1166.713451806781</v>
       </c>
       <c r="W5" t="n">
-        <v>1703.718566540649</v>
+        <v>813.9447965366674</v>
       </c>
       <c r="X5" t="n">
-        <v>1703.718566540649</v>
+        <v>440.4790382755874</v>
       </c>
       <c r="Y5" t="n">
-        <v>1703.718566540649</v>
+        <v>440.4790382755874</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>227.250901179398</v>
+        <v>663.7175082377065</v>
       </c>
       <c r="C6" t="n">
-        <v>227.250901179398</v>
+        <v>489.2644789565795</v>
       </c>
       <c r="D6" t="n">
-        <v>78.31649151814671</v>
+        <v>340.3300692953283</v>
       </c>
       <c r="E6" t="n">
-        <v>78.31649151814671</v>
+        <v>181.0926142898728</v>
       </c>
       <c r="F6" t="n">
-        <v>78.31649151814671</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="G6" t="n">
-        <v>78.31649151814671</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="H6" t="n">
-        <v>78.31649151814671</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787511</v>
+        <v>61.66788464787544</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806059</v>
+        <v>186.1577239806066</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189971</v>
+        <v>399.8722171189984</v>
       </c>
       <c r="M6" t="n">
-        <v>668.623818522349</v>
+        <v>668.6238185223508</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352464</v>
+        <v>958.8971200352489</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228317</v>
+        <v>1202.22068622832</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639506</v>
+        <v>1378.17623363951</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906547</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703771</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="S6" t="n">
-        <v>1401.100270703771</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="T6" t="n">
-        <v>1205.559652423526</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="U6" t="n">
-        <v>1065.315393898154</v>
+        <v>1274.93645369505</v>
       </c>
       <c r="V6" t="n">
-        <v>1065.315393898154</v>
+        <v>1039.784345463307</v>
       </c>
       <c r="W6" t="n">
-        <v>811.0780371699527</v>
+        <v>1039.784345463307</v>
       </c>
       <c r="X6" t="n">
-        <v>603.2265369644199</v>
+        <v>831.9328452577745</v>
       </c>
       <c r="Y6" t="n">
-        <v>395.466238199466</v>
+        <v>831.9328452577745</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>216.681122656859</v>
+        <v>369.8190495858011</v>
       </c>
       <c r="C7" t="n">
-        <v>216.681122656859</v>
+        <v>369.8190495858011</v>
       </c>
       <c r="D7" t="n">
-        <v>216.681122656859</v>
+        <v>329.3610973970612</v>
       </c>
       <c r="E7" t="n">
-        <v>216.681122656859</v>
+        <v>181.4480038146681</v>
       </c>
       <c r="F7" t="n">
-        <v>216.681122656859</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="G7" t="n">
-        <v>216.681122656859</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="H7" t="n">
-        <v>65.10546964306124</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="I7" t="n">
-        <v>65.10546964306124</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574668</v>
+        <v>64.24066662574702</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584111</v>
+        <v>132.1299861584118</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347966</v>
+        <v>206.9680378347975</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195359</v>
+        <v>287.8841338195371</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934707</v>
+        <v>342.3101561934723</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857993</v>
+        <v>369.8190495858011</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495857993</v>
+        <v>369.8190495858011</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495857993</v>
+        <v>369.8190495858011</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495857993</v>
+        <v>369.8190495858011</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495857993</v>
+        <v>369.8190495858011</v>
       </c>
       <c r="U7" t="n">
-        <v>216.681122656859</v>
+        <v>369.8190495858011</v>
       </c>
       <c r="V7" t="n">
-        <v>216.681122656859</v>
+        <v>369.8190495858011</v>
       </c>
       <c r="W7" t="n">
-        <v>216.681122656859</v>
+        <v>369.8190495858011</v>
       </c>
       <c r="X7" t="n">
-        <v>216.681122656859</v>
+        <v>369.8190495858011</v>
       </c>
       <c r="Y7" t="n">
-        <v>216.681122656859</v>
+        <v>369.8190495858011</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1615.005796072727</v>
+        <v>334.4233539899546</v>
       </c>
       <c r="C8" t="n">
-        <v>1615.005796072727</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="D8" t="n">
-        <v>1256.740097465976</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="E8" t="n">
-        <v>1256.740097465976</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="F8" t="n">
-        <v>845.7541926763687</v>
+        <v>55.35983779428172</v>
       </c>
       <c r="G8" t="n">
-        <v>429.7231473797759</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
         <v>43.36919653809306</v>
@@ -4840,16 +4840,16 @@
         <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904653</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W8" t="n">
-        <v>2001.605636136848</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="X8" t="n">
-        <v>2001.605636136848</v>
+        <v>1111.162526029888</v>
       </c>
       <c r="Y8" t="n">
-        <v>2001.605636136848</v>
+        <v>721.0231940540764</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>267.4604631511913</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>267.4604631511913</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>267.4604631511913</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>267.4604631511913</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>267.4604631511913</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>130.5844693663072</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
         <v>43.36919653809306</v>
@@ -4907,28 +4907,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474382</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>1400.563316948358</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U9" t="n">
-        <v>1172.461727081622</v>
+        <v>1538.125457466751</v>
       </c>
       <c r="V9" t="n">
-        <v>937.3096188498796</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>683.072262121678</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>475.2207619161452</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>267.4604631511913</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>191.2822901204862</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C10" t="n">
-        <v>191.2822901204862</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="D10" t="n">
-        <v>191.2822901204862</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F10" t="n">
         <v>43.36919653809306</v>
@@ -5007,7 +5007,7 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Y10" t="n">
-        <v>372.9307549507259</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5056,28 +5056,28 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.345997432835</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C13" t="n">
-        <v>923.4098145049279</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D13" t="n">
-        <v>773.2931750925922</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>625.380081510199</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304622</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.776592304622</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.787041406604</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.994462263074</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5305,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>996.5276398439761</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>827.5914569160692</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>677.4748175037334</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1398.968683817746</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1178.176104674216</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5752,25 +5752,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5946,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,16 +5971,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5989,13 +5989,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>264.0500279773688</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>264.0500279773688</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>96.85392869224876</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2380.301669307225</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2380.301669307225</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.700204330166</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6208,55 +6208,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1028.490320362745</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>859.5541374348384</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>709.4374980225026</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>561.5244044401095</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>414.6344569421991</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>247.4383576570791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1430.931364336515</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1210.138785192985</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>94.65038286230612</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>94.65038286230612</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,28 +6712,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.3099000622266</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>747.3737171343197</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>597.2570777219839</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>449.3439841395908</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970974</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934014</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035996</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>1097.958364892466</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.5007694647281</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>631.5645865368213</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>481.4479471244855</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>333.5348535420924</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>186.644906044182</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949679</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7411,28 +7411,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7505,13 +7505,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>549.6145409888042</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2415.678320081396</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2232.8234857363</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2013.222020759241</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1724.146794103439</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1469.462305897552</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1180.045135860591</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>952.055584962574</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>731.2630058190439</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7636,22 +7636,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>634.9279362553159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2318.136881002812</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2098.535416025753</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1809.460189369951</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1554.775701164064</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1265.358531127103</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1037.368980229086</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>816.5764010855556</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>69.70496293143185</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>6.257951202384618</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>101.1181252153547</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0.3804465798165779</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>69.4750715017733</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>80.44045370237463</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>99.26785128072123</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>154.8900140445863</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>58.1558530613933</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>35.40333084624553</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>119.8635921600914</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>680534.5999045508</v>
+        <v>680534.5999045507</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045508</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>680534.5999045508</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>680534.5999045508</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>759463.6371244621</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244618</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244615</v>
+        <v>759463.6371244617</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="F2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.6047132555</v>
-      </c>
       <c r="G2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253111</v>
+        <v>270592.3620253127</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231939</v>
+        <v>115410.0540231925</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742654</v>
+        <v>601443.2075742652</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881951</v>
+        <v>62913.63765881978</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197533</v>
+        <v>27875.25362197483</v>
       </c>
       <c r="M3" t="n">
         <v>157146.380551598</v>
@@ -26420,13 +26420,13 @@
         <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263465</v>
+        <v>206604.4229263461</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687967</v>
@@ -26435,25 +26435,25 @@
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.6400068796</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.6400068796</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936811</v>
+        <v>76435.73471936821</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167415.630642127</v>
+        <v>-167415.6306421268</v>
       </c>
       <c r="C6" t="n">
-        <v>205831.1174534364</v>
+        <v>205831.1174534348</v>
       </c>
       <c r="D6" t="n">
-        <v>384651.5111564976</v>
+        <v>384651.5111564993</v>
       </c>
       <c r="E6" t="n">
-        <v>28608.22730820297</v>
+        <v>28260.84805384617</v>
       </c>
       <c r="F6" t="n">
-        <v>630051.4348824688</v>
+        <v>629704.0556281115</v>
       </c>
       <c r="G6" t="n">
-        <v>630051.4348824689</v>
+        <v>629704.0556281116</v>
       </c>
       <c r="H6" t="n">
-        <v>630051.4348824687</v>
+        <v>629704.0556281115</v>
       </c>
       <c r="I6" t="n">
-        <v>630051.4348824688</v>
+        <v>629704.0556281116</v>
       </c>
       <c r="J6" t="n">
-        <v>580986.4901539242</v>
+        <v>580639.1108995668</v>
       </c>
       <c r="K6" t="n">
-        <v>567137.797223649</v>
+        <v>566790.4179692917</v>
       </c>
       <c r="L6" t="n">
-        <v>602176.1812604931</v>
+        <v>601828.8020061367</v>
       </c>
       <c r="M6" t="n">
-        <v>472905.0543308708</v>
+        <v>472557.6750765134</v>
       </c>
       <c r="N6" t="n">
-        <v>630051.4348824689</v>
+        <v>629704.0556281114</v>
       </c>
       <c r="O6" t="n">
-        <v>630051.4348824687</v>
+        <v>629704.0556281115</v>
       </c>
       <c r="P6" t="n">
-        <v>630051.4348824688</v>
+        <v>629704.0556281115</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950608</v>
+        <v>758.8996292950619</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26792,13 +26792,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594701</v>
+        <v>431.9757039594714</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26819,10 +26819,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>210.429688382156</v>
+        <v>210.4296883821572</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262335</v>
+        <v>94.81103524262221</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039899</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931501</v>
+        <v>244.4501167931514</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666931</v>
+        <v>110.1392527666918</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931503</v>
+        <v>244.4501167931514</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666933</v>
+        <v>110.1392527666919</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931501</v>
+        <v>244.4501167931514</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666931</v>
+        <v>110.1392527666918</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753914</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>269.8287907659933</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988677</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871029</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>342.8442447313714</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897336</v>
       </c>
     </row>
     <row r="3">
@@ -27460,10 +27460,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27478,10 +27478,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27520,10 +27520,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>74.94680025002813</v>
       </c>
       <c r="X3" t="n">
-        <v>54.28823571626296</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>93.20510176849672</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.57770336425637</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>305.1640524373461</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760036</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>47.21877956895077</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,25 +27697,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246132</v>
+        <v>96.47037835246131</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937512</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.3306063007479</v>
       </c>
       <c r="S6" t="n">
         <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>86.99217468388144</v>
+        <v>56.60120548461359</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>108.5621003513598</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
         <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.24193919304045</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589167</v>
+        <v>36.9111576058915</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166225</v>
+        <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>134.6378358316634</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>95.8760564790029</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>184.0553198572867</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>44.45716074097201</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5435940233621</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>135.5663557888597</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>72.69964718312033</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31047,28 +31047,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31077,13 +31077,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31138,7 +31138,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31147,22 +31147,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085669</v>
+        <v>3.050852781085674</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429362</v>
+        <v>31.24454604429366</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428054</v>
+        <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286701</v>
+        <v>258.9373162286705</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520265</v>
+        <v>388.0799144520271</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511771</v>
+        <v>481.4474502511779</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968094</v>
+        <v>535.7030533968102</v>
       </c>
       <c r="N5" t="n">
-        <v>544.371288861069</v>
+        <v>544.37128886107</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191484</v>
+        <v>514.0343715191492</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860959</v>
+        <v>438.7164434860966</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634653</v>
+        <v>329.4577782634658</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098728</v>
+        <v>191.6431310098731</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898976</v>
+        <v>69.52130774898986</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920252</v>
+        <v>13.35510804920254</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868535</v>
+        <v>0.2440682224868538</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030886</v>
+        <v>1.632350146030888</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403513</v>
+        <v>15.76506588403516</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062479</v>
+        <v>56.20152915062488</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475935</v>
+        <v>154.2212916475937</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316628</v>
+        <v>263.5887514316632</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721886</v>
+        <v>354.4276051721891</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658081</v>
+        <v>413.6002979658087</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468661</v>
+        <v>424.5470671468668</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374449</v>
+        <v>388.3776244374455</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872487</v>
+        <v>311.7072835872492</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547496</v>
+        <v>208.3680642547499</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632159</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947717</v>
+        <v>30.32018801947722</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378873</v>
+        <v>6.579516597378883</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757162</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236995</v>
+        <v>1.368507528236997</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377983</v>
+        <v>12.16727602377985</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734527</v>
+        <v>41.15475366734533</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635552</v>
+        <v>96.75348224635566</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260799</v>
+        <v>158.9956928260801</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162529</v>
+        <v>203.4597465162532</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399136</v>
+        <v>214.5197755399139</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528486</v>
+        <v>209.4189747528489</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275346</v>
+        <v>193.4323186275348</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514997</v>
+        <v>165.5147650515</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235542</v>
+        <v>114.5938440235543</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054704</v>
+        <v>61.53307486054713</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391198</v>
+        <v>23.84935392391202</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830794</v>
+        <v>5.847259438830803</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656344</v>
+        <v>0.07464586517656355</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,7 +32794,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,16 +33523,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>569.5723171953896</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198377</v>
+        <v>77.89141170198417</v>
       </c>
       <c r="K5" t="n">
-        <v>167.990063407046</v>
+        <v>167.9900634070465</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811899</v>
+        <v>245.6810352811906</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695367</v>
+        <v>305.3568201695375</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644781</v>
+        <v>314.958225264479</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974617</v>
+        <v>283.9361600974624</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308264</v>
+        <v>207.483447730827</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890158</v>
+        <v>107.1520883890163</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092677</v>
+        <v>27.38366498092699</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573038</v>
+        <v>125.7473124573042</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923144</v>
+        <v>215.8732253923149</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437897</v>
+        <v>271.4662640437904</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635328</v>
+        <v>293.2053550635335</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930005</v>
+        <v>245.7813799930011</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729185</v>
+        <v>177.7328761729189</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872804</v>
+        <v>68.38629016872835</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554452</v>
+        <v>29.98243465554475</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501458</v>
+        <v>68.57507023501489</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230856</v>
+        <v>75.59399159230887</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761542</v>
+        <v>81.73343028761573</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569177</v>
+        <v>54.97578017569205</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235211</v>
+        <v>27.78676100235236</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>426.9760727509451</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>73.1808046631526</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3438468.001454914</v>
+        <v>3440228.531757701</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7859941.482472573</v>
+        <v>7859941.482472574</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>130.1712092340064</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>143.2690424640647</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -758,7 +758,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.039683922575129</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>176.7481829108915</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>245.2861618131284</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425901</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>203.8828051163989</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -983,10 +983,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>14.56939904994445</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>169.2327851393855</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>40.05337266685251</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>16.04608921951168</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>269.3968352920047</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>231.8762019911317</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>31.68046530976816</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>9.854692234071585</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881284</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>78.9105100867805</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1773,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>191.6604102493273</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695608</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833905</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833815</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>42.53134576113725</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>65.99480013030511</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,13 +2721,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>140.5758943588665</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>32.27552175740409</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>31.26260713376613</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758761</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>112.5284434523316</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4036,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>293.402456393256</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="C2" t="n">
-        <v>293.402456393256</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="D2" t="n">
-        <v>293.402456393256</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="E2" t="n">
-        <v>293.402456393256</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F2" t="n">
-        <v>286.4569556440525</v>
+        <v>154.9708857107125</v>
       </c>
       <c r="G2" t="n">
         <v>141.7407511348962</v>
@@ -4327,55 +4327,55 @@
         <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262257</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262257</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="T2" t="n">
-        <v>482.8222414097409</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="U2" t="n">
-        <v>482.8222414097409</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="V2" t="n">
-        <v>482.8222414097409</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="W2" t="n">
-        <v>482.8222414097409</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="X2" t="n">
-        <v>482.8222414097409</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="Y2" t="n">
-        <v>293.402456393256</v>
+        <v>482.8222414097404</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>571.5688305734704</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="C3" t="n">
-        <v>571.5688305734704</v>
+        <v>575.6493193841525</v>
       </c>
       <c r="D3" t="n">
-        <v>422.6344209122192</v>
+        <v>426.7149097229012</v>
       </c>
       <c r="E3" t="n">
-        <v>263.3969659067637</v>
+        <v>267.4774547174457</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336487</v>
+        <v>120.9428967443307</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>120.9428967443307</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>19.08253578398754</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476346</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W3" t="n">
-        <v>571.5688305734704</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X3" t="n">
-        <v>571.5688305734704</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Y3" t="n">
-        <v>571.5688305734704</v>
+        <v>750.1023486652795</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170723</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53.87919821146561</v>
+        <v>422.8417151518773</v>
       </c>
       <c r="C5" t="n">
-        <v>53.87919821146561</v>
+        <v>53.87919821146555</v>
       </c>
       <c r="D5" t="n">
-        <v>53.87919821146561</v>
+        <v>53.87919821146555</v>
       </c>
       <c r="E5" t="n">
-        <v>53.87919821146561</v>
+        <v>53.87919821146555</v>
       </c>
       <c r="F5" t="n">
-        <v>46.93369746226213</v>
+        <v>46.93369746226207</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017219</v>
+        <v>111.6705539017217</v>
       </c>
       <c r="K5" t="n">
-        <v>277.980716674698</v>
+        <v>277.9807166746976</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030768</v>
+        <v>521.2049416030759</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709187</v>
+        <v>823.5081935709172</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582753</v>
+        <v>1135.316836582751</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079241</v>
+        <v>1416.413635079238</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.82224833276</v>
+        <v>1621.822248332757</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837886</v>
+        <v>1727.902815837883</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540654</v>
+        <v>1727.902815837883</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540654</v>
+        <v>1727.902815837883</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540654</v>
+        <v>1727.902815837883</v>
       </c>
       <c r="U5" t="n">
-        <v>1497.776339150352</v>
+        <v>1727.902815837883</v>
       </c>
       <c r="V5" t="n">
-        <v>1166.713451806781</v>
+        <v>1396.839928494312</v>
       </c>
       <c r="W5" t="n">
-        <v>813.9447965366674</v>
+        <v>1044.071273224198</v>
       </c>
       <c r="X5" t="n">
-        <v>440.4790382755874</v>
+        <v>670.6055149631181</v>
       </c>
       <c r="Y5" t="n">
-        <v>440.4790382755874</v>
+        <v>670.6055149631181</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.7175082377065</v>
+        <v>372.6620599560495</v>
       </c>
       <c r="C6" t="n">
-        <v>489.2644789565795</v>
+        <v>198.2090306749225</v>
       </c>
       <c r="D6" t="n">
-        <v>340.3300692953283</v>
+        <v>49.27462101367124</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898728</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787544</v>
+        <v>61.66788464787523</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806066</v>
+        <v>186.1577239806062</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189984</v>
+        <v>399.8722171189976</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223508</v>
+        <v>668.6238185223497</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352489</v>
+        <v>958.8971200352476</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.22068622832</v>
+        <v>1202.220686228318</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.17623363951</v>
+        <v>1378.176233639508</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906551</v>
+        <v>1445.878660906548</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906551</v>
+        <v>1445.878660906548</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906551</v>
+        <v>1445.878660906548</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906551</v>
+        <v>1445.878660906548</v>
       </c>
       <c r="U6" t="n">
-        <v>1274.93645369505</v>
+        <v>1445.878660906548</v>
       </c>
       <c r="V6" t="n">
-        <v>1039.784345463307</v>
+        <v>1210.726552674806</v>
       </c>
       <c r="W6" t="n">
-        <v>1039.784345463307</v>
+        <v>956.4891959466042</v>
       </c>
       <c r="X6" t="n">
-        <v>831.9328452577745</v>
+        <v>748.6376957410714</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.9328452577745</v>
+        <v>540.8773969761176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495858011</v>
+        <v>369.8190495858</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8190495858011</v>
+        <v>200.8828666578931</v>
       </c>
       <c r="D7" t="n">
-        <v>329.3610973970612</v>
+        <v>50.76622724555733</v>
       </c>
       <c r="E7" t="n">
-        <v>181.4480038146681</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574702</v>
+        <v>64.24066662574681</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584118</v>
+        <v>132.1299861584114</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347975</v>
+        <v>206.9680378347969</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195371</v>
+        <v>287.8841338195363</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934723</v>
+        <v>342.3101561934713</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858011</v>
+        <v>369.8190495858</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858011</v>
+        <v>369.8190495858</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858011</v>
+        <v>369.8190495858</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858011</v>
+        <v>369.8190495858</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858011</v>
+        <v>369.8190495858</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858011</v>
+        <v>369.8190495858</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858011</v>
+        <v>369.8190495858</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858011</v>
+        <v>369.8190495858</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858011</v>
+        <v>369.8190495858</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495858011</v>
+        <v>369.8190495858</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>334.4233539899546</v>
+        <v>431.2678554838969</v>
       </c>
       <c r="C8" t="n">
-        <v>62.30533854348519</v>
+        <v>62.30533854348518</v>
       </c>
       <c r="D8" t="n">
-        <v>62.30533854348519</v>
+        <v>62.30533854348518</v>
       </c>
       <c r="E8" t="n">
-        <v>62.30533854348519</v>
+        <v>62.30533854348518</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>55.35983779428171</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
         <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
@@ -4822,34 +4822,34 @@
         <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="V8" t="n">
-        <v>1837.396939561082</v>
+        <v>1934.241441055024</v>
       </c>
       <c r="W8" t="n">
-        <v>1484.628284290968</v>
+        <v>1581.47278578491</v>
       </c>
       <c r="X8" t="n">
-        <v>1111.162526029888</v>
+        <v>1208.00702752383</v>
       </c>
       <c r="Y8" t="n">
-        <v>721.0231940540764</v>
+        <v>817.8676955480187</v>
       </c>
     </row>
     <row r="9">
@@ -4871,16 +4871,16 @@
         <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J9" t="n">
         <v>89.55356510562316</v>
@@ -4941,28 +4941,28 @@
         <v>520.2893470405991</v>
       </c>
       <c r="C10" t="n">
-        <v>488.2888770307322</v>
+        <v>351.3531641126922</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1722376183965</v>
+        <v>201.2365247003565</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360034</v>
+        <v>53.32343111796334</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>53.32343111796334</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>53.32343111796334</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>53.32343111796334</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>53.32343111796334</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="K10" t="n">
         <v>92.71685897981521</v>
@@ -5032,7 +5032,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5041,22 +5041,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,7 +5077,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5129,7 +5129,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N12" t="n">
         <v>1859.536823237711</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5269,58 +5269,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="17">
@@ -5497,25 +5497,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5527,19 +5527,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,13 +5740,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5755,7 +5755,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5773,19 +5773,19 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5971,67 +5971,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.777212765616</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2380.301669307225</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2380.301669307225</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.700204330166</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.624977674364</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1871.624977674364</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1582.207807637403</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.218256739386</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="26">
@@ -6220,19 +6220,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6241,34 +6241,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="29">
@@ -6460,19 +6460,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,28 +6712,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="38">
@@ -7168,43 +7168,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,13 +7399,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7414,7 +7414,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7429,31 +7429,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2333.297989183966</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="44">
@@ -7630,28 +7630,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7666,22 +7666,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123002</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>69.70496293143185</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>25.74504007796097</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823012</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393069</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>106.0841272570751</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.3804465798165779</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>145.6085800303777</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>104.8770068749567</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>46.45968844823102</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228707</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>680534.5999045506</v>
+        <v>680534.5999045507</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>680534.5999045506</v>
+        <v>680534.5999045507</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>680534.5999045506</v>
+        <v>680534.5999045508</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>680534.5999045506</v>
+        <v>680534.5999045508</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>680534.5999045506</v>
+        <v>680534.5999045508</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244618</v>
+        <v>759463.6371244619</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244617</v>
@@ -26325,34 +26325,34 @@
         <v>746610.6047132551</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="G2" t="n">
+        <v>746610.6047132557</v>
+      </c>
+      <c r="H2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="L2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="M2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
         <v>746610.6047132551</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132552</v>
@@ -26368,19 +26368,19 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253127</v>
+        <v>270592.362025312</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231925</v>
+        <v>115410.0540231933</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742652</v>
+        <v>601443.2075742653</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881978</v>
+        <v>62913.63765881957</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197483</v>
+        <v>27875.25362197501</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263461</v>
+        <v>206604.4229263463</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
@@ -26441,7 +26441,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
@@ -26459,7 +26459,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687963</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936821</v>
+        <v>76435.73471936815</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167415.6306421268</v>
+        <v>-167415.6306421263</v>
       </c>
       <c r="C6" t="n">
-        <v>205831.1174534348</v>
+        <v>205831.1174534354</v>
       </c>
       <c r="D6" t="n">
-        <v>384651.5111564993</v>
+        <v>384651.5111564985</v>
       </c>
       <c r="E6" t="n">
-        <v>28260.84805384617</v>
+        <v>28573.48938276729</v>
       </c>
       <c r="F6" t="n">
-        <v>629704.0556281115</v>
+        <v>630016.6969570329</v>
       </c>
       <c r="G6" t="n">
-        <v>629704.0556281116</v>
+        <v>630016.6969570331</v>
       </c>
       <c r="H6" t="n">
-        <v>629704.0556281115</v>
+        <v>630016.6969570327</v>
       </c>
       <c r="I6" t="n">
-        <v>629704.0556281116</v>
+        <v>630016.6969570329</v>
       </c>
       <c r="J6" t="n">
-        <v>580639.1108995668</v>
+        <v>580951.7522284882</v>
       </c>
       <c r="K6" t="n">
-        <v>566790.4179692917</v>
+        <v>567103.0592982131</v>
       </c>
       <c r="L6" t="n">
-        <v>601828.8020061367</v>
+        <v>602141.4433350579</v>
       </c>
       <c r="M6" t="n">
-        <v>472557.6750765134</v>
+        <v>472870.3164054347</v>
       </c>
       <c r="N6" t="n">
-        <v>629704.0556281114</v>
+        <v>630016.6969570327</v>
       </c>
       <c r="O6" t="n">
-        <v>629704.0556281115</v>
+        <v>630016.6969570327</v>
       </c>
       <c r="P6" t="n">
-        <v>629704.0556281115</v>
+        <v>630016.6969570329</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950619</v>
+        <v>758.8996292950612</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594714</v>
+        <v>431.9757039594706</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821572</v>
+        <v>210.4296883821567</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262221</v>
+        <v>94.81103524262289</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039896</v>
+        <v>514.2648358039899</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931514</v>
+        <v>244.4501167931508</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666918</v>
+        <v>110.1392527666924</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734853</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931514</v>
+        <v>244.4501167931506</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666919</v>
+        <v>110.1392527666927</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931514</v>
+        <v>244.4501167931508</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666918</v>
+        <v>110.1392527666924</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734853</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>252.5626324294742</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046877</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>269.8287907659933</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27432,13 +27432,13 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988677</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897336</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27460,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27478,10 +27478,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>54.86487498151637</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27520,7 +27520,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>74.94680025002813</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>93.20510176849672</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>114.7859889482797</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>137.4476798503521</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27636,7 +27636,7 @@
         <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760036</v>
+        <v>92.85788772760047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425918</v>
       </c>
       <c r="S5" t="n">
         <v>139.4987618372555</v>
@@ -27672,7 +27672,7 @@
         <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>47.21877956895077</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>143.0756814054565</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246131</v>
+        <v>96.47037835246132</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937512</v>
+        <v>43.32085084937517</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.3306063007479</v>
+        <v>44.330606300748</v>
       </c>
       <c r="S6" t="n">
         <v>141.3629830843606</v>
@@ -27751,19 +27751,19 @@
         <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>56.60120548461359</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>108.5621003513598</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>130.3878734270575</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6224718302218</v>
@@ -27797,7 +27797,7 @@
         <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304045</v>
+        <v>30.24193919304054</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.9111576058915</v>
+        <v>36.9111576058916</v>
       </c>
       <c r="R7" t="n">
         <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130602</v>
+        <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>95.8760564790029</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27912,7 +27912,7 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>95.87605647900318</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>135.5663557888597</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>8.299617105167663</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-8.185674360561279e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-8.300560239149491e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -30756,7 +30756,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -31044,13 +31044,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31062,25 +31062,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31126,7 +31126,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,16 +31135,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31153,16 +31153,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31229,19 +31229,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085674</v>
+        <v>3.050852781085671</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429366</v>
+        <v>31.24454604429364</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428056</v>
+        <v>117.6180018428054</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286705</v>
+        <v>258.9373162286702</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520271</v>
+        <v>388.0799144520267</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511779</v>
+        <v>481.4474502511774</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968102</v>
+        <v>535.7030533968098</v>
       </c>
       <c r="N5" t="n">
-        <v>544.37128886107</v>
+        <v>544.3712888610694</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191492</v>
+        <v>514.0343715191487</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860966</v>
+        <v>438.7164434860962</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634658</v>
+        <v>329.4577782634655</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098731</v>
+        <v>191.6431310098729</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898986</v>
+        <v>69.5213077489898</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920254</v>
+        <v>13.35510804920253</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868538</v>
+        <v>0.2440682224868536</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030888</v>
+        <v>1.632350146030886</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403516</v>
+        <v>15.76506588403514</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062488</v>
+        <v>56.20152915062483</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475937</v>
+        <v>154.2212916475935</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316632</v>
+        <v>263.588751431663</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721891</v>
+        <v>354.4276051721888</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658087</v>
+        <v>413.6002979658083</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468668</v>
+        <v>424.5470671468664</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374455</v>
+        <v>388.3776244374451</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872492</v>
+        <v>311.7072835872489</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547499</v>
+        <v>208.3680642547497</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632161</v>
+        <v>101.348897663216</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947722</v>
+        <v>30.32018801947719</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378883</v>
+        <v>6.579516597378878</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757164</v>
+        <v>0.1073914569757163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236997</v>
+        <v>1.368507528236995</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377985</v>
+        <v>12.16727602377984</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734533</v>
+        <v>41.1547536673453</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635566</v>
+        <v>96.75348224635557</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260801</v>
+        <v>158.99569282608</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162532</v>
+        <v>203.459746516253</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399139</v>
+        <v>214.5197755399137</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528489</v>
+        <v>209.4189747528488</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275348</v>
+        <v>193.4323186275347</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515</v>
+        <v>165.5147650514998</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235543</v>
+        <v>114.5938440235542</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054713</v>
+        <v>61.53307486054707</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391202</v>
+        <v>23.84935392391199</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830803</v>
+        <v>5.847259438830798</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656355</v>
+        <v>0.07464586517656348</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>302.967544750805</v>
+        <v>302.9675447508045</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159423</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198417</v>
+        <v>77.89141170198394</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070465</v>
+        <v>167.9900634070462</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811906</v>
+        <v>245.6810352811902</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695375</v>
+        <v>305.3568201695371</v>
       </c>
       <c r="N5" t="n">
-        <v>314.958225264479</v>
+        <v>314.9582252644785</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974624</v>
+        <v>283.936160097462</v>
       </c>
       <c r="P5" t="n">
-        <v>207.483447730827</v>
+        <v>207.4834477308266</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890163</v>
+        <v>107.152088389016</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092699</v>
+        <v>27.38366498092685</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573042</v>
+        <v>125.747312457304</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923149</v>
+        <v>215.8732253923146</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437904</v>
+        <v>271.46626404379</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635335</v>
+        <v>293.2053550635331</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930011</v>
+        <v>245.7813799930007</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729189</v>
+        <v>177.7328761729186</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872835</v>
+        <v>68.38629016872815</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554475</v>
+        <v>29.98243465554461</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501489</v>
+        <v>68.57507023501469</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230887</v>
+        <v>75.59399159230867</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761573</v>
+        <v>81.73343028761556</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569205</v>
+        <v>54.97578017569188</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235236</v>
+        <v>27.78676100235222</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>160.8335108287866</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193515</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
